--- a/FS_thesis2/FS_errors.xlsx
+++ b/FS_thesis2/FS_errors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>73250.3</v>
+        <v>657414.5417426862</v>
       </c>
       <c r="C2" t="n">
-        <v>47959</v>
+        <v>3880.172613787232</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>63314.4</v>
+        <v>428430.6638002892</v>
       </c>
       <c r="C3" t="n">
-        <v>50858</v>
+        <v>3880.172613787232</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>57831.1</v>
+        <v>306508.6679032648</v>
       </c>
       <c r="C4" t="n">
-        <v>41189</v>
+        <v>3880.172613787232</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,186 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>52672.6</v>
+        <v>186886.944987875</v>
       </c>
       <c r="C5" t="n">
-        <v>41189</v>
+        <v>3880.172613787232</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>148289.3615605516</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3880.172613787232</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>94964.65563556696</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>91526.37934841527</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>72265.96045345723</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>58248.21590530986</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>53107.21270695536</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>61653.42450662095</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>67256.42908928309</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>49327.45515042832</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>49709.58303631068</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>39133.50062070278</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>41326.3422664292</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>35556.4281934922</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>31362.73578052108</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>28169.72237710975</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>37739.54224100125</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
